--- a/Monza.xlsx
+++ b/Monza.xlsx
@@ -411,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -441,7 +441,7 @@
         <v>5.7930000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -449,7 +449,7 @@
         <v>306.72000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,7 +457,7 @@
         <v>81.046000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -465,7 +465,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -473,7 +473,7 @@
         <v>4914.3649999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -481,7 +481,7 @@
         <v>84.811999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -489,7 +489,7 @@
         <v>89.004999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -497,7 +497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -513,7 +513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -521,37 +521,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>2.355</v>
       </c>
-      <c r="C13">
-        <f>B13/B2*100</f>
-        <v>40.652511651993784</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <f>C13*B7/100</f>
-        <v>34.478208182288967</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>34.478000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
-        <f>C13*B8/100</f>
-        <v>36.182767995857063</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36.182000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -559,7 +553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -567,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -575,37 +569,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>1.8049999999999999</v>
       </c>
-      <c r="C19">
-        <f>B19/B2*100</f>
-        <v>31.158294493354045</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>14</v>
       </c>
       <c r="B20">
-        <f>C19*B7/100</f>
-        <v>26.425972725703431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26.425000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21">
-        <f>C19*B8/100</f>
-        <v>27.732440013809764</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>27.731999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -613,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -621,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -629,37 +617,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25">
         <v>1.6319999999999999</v>
       </c>
-      <c r="C25">
-        <f>B25/B2*100</f>
-        <v>28.171931641636455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>14</v>
       </c>
       <c r="B26">
-        <f>C25*B7/100</f>
-        <v>23.89317866390471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>23.893000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27">
-        <f>C25*B8/100</f>
-        <v>25.074427757638528</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25.074400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -667,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -675,7 +657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
